--- a/runs/run817/NotionalETEOutput817.xlsx
+++ b/runs/run817/NotionalETEOutput817.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX3_State_Update</t>
+    <t>Missile_ANGERMAX1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3_360.MISSILE_ANGERMAX3_360</t>
+    <t>MISSILE_ANGERMAX1_216.MISSILE_ANGERMAX1_216</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX3</t>
+    <t>MISSILE_ANGERMAX1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1571.23824941397</v>
+        <v>-1469.375483451894</v>
       </c>
       <c r="J2">
-        <v>1978.850108660711</v>
+        <v>2036.942810342534</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1517.841140004675</v>
+        <v>-1519.595521919833</v>
       </c>
       <c r="J3">
-        <v>1917.204635720493</v>
+        <v>1915.217581860858</v>
       </c>
       <c r="K3">
-        <v>294.896127379936</v>
+        <v>309.6047381463392</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1493.334413192211</v>
+        <v>-1403.407044137679</v>
       </c>
       <c r="J4">
-        <v>1838.266412336061</v>
+        <v>1903.527802721025</v>
       </c>
       <c r="K4">
-        <v>604.295928507182</v>
+        <v>571.2200858853233</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1467.200299317441</v>
+        <v>-1473.153275605806</v>
       </c>
       <c r="J5">
-        <v>1886.545799331377</v>
+        <v>1776.311259358193</v>
       </c>
       <c r="K5">
-        <v>884.109325278713</v>
+        <v>871.1130422464606</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1413.572631684501</v>
+        <v>-1404.043730101883</v>
       </c>
       <c r="J6">
-        <v>1783.503172858011</v>
+        <v>1785.361776583069</v>
       </c>
       <c r="K6">
-        <v>1148.99750112434</v>
+        <v>1173.983302207162</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1331.69318588485</v>
+        <v>-1326.449900681211</v>
       </c>
       <c r="J7">
-        <v>1709.551323101681</v>
+        <v>1831.334171784884</v>
       </c>
       <c r="K7">
-        <v>1339.6908838711</v>
+        <v>1363.479811109419</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1355.225182976685</v>
+        <v>-1346.267982842424</v>
       </c>
       <c r="J8">
-        <v>1693.489287931524</v>
+        <v>1715.05001052205</v>
       </c>
       <c r="K8">
-        <v>1615.126362408319</v>
+        <v>1541.08514182221</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-99.58123598140486</v>
+        <v>-96.67461131772525</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1226.244631550318</v>
+        <v>-1283.867335316692</v>
       </c>
       <c r="J9">
-        <v>1701.728109886894</v>
+        <v>1675.129528252311</v>
       </c>
       <c r="K9">
-        <v>1856.126951575108</v>
+        <v>1797.69537478995</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>213.2603438272187</v>
+        <v>206.8035658613289</v>
       </c>
       <c r="G10">
-        <v>-79.80748914108842</v>
+        <v>-81.00217902706541</v>
       </c>
       <c r="H10">
-        <v>855.3866440166012</v>
+        <v>833.3795856001824</v>
       </c>
       <c r="I10">
-        <v>-1212.692527050602</v>
+        <v>-1257.189304021807</v>
       </c>
       <c r="J10">
-        <v>1588.707150028403</v>
+        <v>1651.9320613843</v>
       </c>
       <c r="K10">
-        <v>2039.324035921304</v>
+        <v>1987.884193818467</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>169.412621130578</v>
+        <v>160.3230588060796</v>
       </c>
       <c r="G11">
-        <v>-67.22295873718005</v>
+        <v>-69.1619038258998</v>
       </c>
       <c r="H11">
-        <v>1102.882444924229</v>
+        <v>1041.635372632182</v>
       </c>
       <c r="I11">
-        <v>-1203.405585765409</v>
+        <v>-1185.474296423677</v>
       </c>
       <c r="J11">
-        <v>1581.386207281954</v>
+        <v>1600.557037107932</v>
       </c>
       <c r="K11">
-        <v>2126.377998697937</v>
+        <v>2253.201558630259</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>142.229336213178</v>
+        <v>140.5566933638821</v>
       </c>
       <c r="G12">
-        <v>-50.29285286081544</v>
+        <v>-51.26136095476252</v>
       </c>
       <c r="H12">
-        <v>1192.220270555494</v>
+        <v>1211.950179788479</v>
       </c>
       <c r="I12">
-        <v>-1164.01310352083</v>
+        <v>-1181.140605510816</v>
       </c>
       <c r="J12">
-        <v>1567.992562004212</v>
+        <v>1519.671788224181</v>
       </c>
       <c r="K12">
-        <v>2440.723040198415</v>
+        <v>2410.584283584154</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>121.9152347277569</v>
+        <v>121.2955588845225</v>
       </c>
       <c r="G13">
-        <v>-32.25578693523919</v>
+        <v>-35.10455931882836</v>
       </c>
       <c r="H13">
-        <v>1269.660380123408</v>
+        <v>1236.480816439527</v>
       </c>
       <c r="I13">
-        <v>-1153.08670161834</v>
+        <v>-1141.755626249014</v>
       </c>
       <c r="J13">
-        <v>1431.422624706625</v>
+        <v>1425.542147021925</v>
       </c>
       <c r="K13">
-        <v>2614.105648023659</v>
+        <v>2513.115596634186</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>107.4906441511447</v>
+        <v>109.8892675596462</v>
       </c>
       <c r="G14">
-        <v>-17.2364923441029</v>
+        <v>-17.916186000936</v>
       </c>
       <c r="H14">
-        <v>1282.352480593204</v>
+        <v>1281.876860533645</v>
       </c>
       <c r="I14">
-        <v>-1039.388594592724</v>
+        <v>-1123.960938301295</v>
       </c>
       <c r="J14">
-        <v>1414.104900597788</v>
+        <v>1351.454257115384</v>
       </c>
       <c r="K14">
-        <v>2514.529675813466</v>
+        <v>2696.201335039702</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>104.8742381871246</v>
+        <v>95.70515589121997</v>
       </c>
       <c r="G15">
-        <v>-0.9242551845547812</v>
+        <v>-0.9182430103218184</v>
       </c>
       <c r="H15">
-        <v>1403.577655949629</v>
+        <v>1318.475982819731</v>
       </c>
       <c r="I15">
-        <v>-1025.077083358169</v>
+        <v>-1075.485288685729</v>
       </c>
       <c r="J15">
-        <v>1366.774832142601</v>
+        <v>1395.199043680386</v>
       </c>
       <c r="K15">
-        <v>2772.127193866584</v>
+        <v>2721.197504047337</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>93.2243920421969</v>
+        <v>88.66025355966579</v>
       </c>
       <c r="G16">
-        <v>15.09623748080033</v>
+        <v>15.70524601513515</v>
       </c>
       <c r="H16">
-        <v>1446.136868910726</v>
+        <v>1446.576129437069</v>
       </c>
       <c r="I16">
-        <v>-976.9690717980145</v>
+        <v>-1015.733379435723</v>
       </c>
       <c r="J16">
-        <v>1327.199633897807</v>
+        <v>1261.442616029555</v>
       </c>
       <c r="K16">
-        <v>2828.120700224331</v>
+        <v>2921.120918756349</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.1550380079003</v>
+        <v>85.05207336197968</v>
       </c>
       <c r="G17">
-        <v>31.76863179458869</v>
+        <v>30.69564928240464</v>
       </c>
       <c r="H17">
-        <v>1405.873012765411</v>
+        <v>1479.928516710974</v>
       </c>
       <c r="I17">
-        <v>-924.3235067112354</v>
+        <v>-951.4442398795206</v>
       </c>
       <c r="J17">
-        <v>1212.022314985951</v>
+        <v>1293.824052404909</v>
       </c>
       <c r="K17">
-        <v>3107.269334408753</v>
+        <v>2864.414761801415</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>82.53065797930518</v>
+        <v>84.28458245200608</v>
       </c>
       <c r="G18">
-        <v>47.78236071863444</v>
+        <v>48.47719398592797</v>
       </c>
       <c r="H18">
-        <v>1546.932993811093</v>
+        <v>1473.380712876842</v>
       </c>
       <c r="I18">
-        <v>-927.7326228228003</v>
+        <v>-930.2024774774078</v>
       </c>
       <c r="J18">
-        <v>1173.019726088945</v>
+        <v>1175.754000605723</v>
       </c>
       <c r="K18">
-        <v>2909.202030787059</v>
+        <v>3071.708469277452</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.48180891489945</v>
+        <v>75.27680245094639</v>
       </c>
       <c r="G19">
-        <v>67.95622633950067</v>
+        <v>67.89309276822567</v>
       </c>
       <c r="H19">
-        <v>1467.018191826392</v>
+        <v>1608.279077644789</v>
       </c>
       <c r="I19">
-        <v>-875.5205305678853</v>
+        <v>-914.2109184911795</v>
       </c>
       <c r="J19">
-        <v>1127.04693575492</v>
+        <v>1121.309323058314</v>
       </c>
       <c r="K19">
-        <v>2957.409809511364</v>
+        <v>3206.524789875043</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>71.49152578017029</v>
+        <v>76.67994033577929</v>
       </c>
       <c r="G20">
-        <v>79.7977910513124</v>
+        <v>82.56244956474113</v>
       </c>
       <c r="H20">
-        <v>1551.184590905595</v>
+        <v>1592.936705221283</v>
       </c>
       <c r="I20">
-        <v>-840.0056869726153</v>
+        <v>-804.9316383945957</v>
       </c>
       <c r="J20">
-        <v>1089.954726979419</v>
+        <v>1146.885652440615</v>
       </c>
       <c r="K20">
-        <v>3063.734242841553</v>
+        <v>3209.125459815188</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>70.01481895809543</v>
+        <v>70.6197107353471</v>
       </c>
       <c r="G21">
-        <v>99.18049142250527</v>
+        <v>99.00929748593752</v>
       </c>
       <c r="H21">
-        <v>1511.108708509934</v>
+        <v>1520.845764014427</v>
       </c>
       <c r="I21">
-        <v>-780.8215147851754</v>
+        <v>-768.0866178890916</v>
       </c>
       <c r="J21">
-        <v>1090.869209464681</v>
+        <v>1099.414380234621</v>
       </c>
       <c r="K21">
-        <v>3244.806798577</v>
+        <v>3073.310749737415</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.90432106823965</v>
+        <v>66.00423878256822</v>
       </c>
       <c r="G22">
-        <v>109.5416768311254</v>
+        <v>116.6074011371482</v>
       </c>
       <c r="H22">
-        <v>1582.124550703409</v>
+        <v>1668.352445246775</v>
       </c>
       <c r="I22">
-        <v>-748.9347190904969</v>
+        <v>-734.5170570023854</v>
       </c>
       <c r="J22">
-        <v>981.1265592743367</v>
+        <v>983.2564848747204</v>
       </c>
       <c r="K22">
-        <v>3269.902950192345</v>
+        <v>3289.911986345898</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.96763441765705</v>
+        <v>63.21928458252638</v>
       </c>
       <c r="G23">
-        <v>129.4595011269561</v>
+        <v>127.2686225986266</v>
       </c>
       <c r="H23">
-        <v>1571.130306054601</v>
+        <v>1673.342694470593</v>
       </c>
       <c r="I23">
-        <v>-668.9773750668247</v>
+        <v>-730.560302833602</v>
       </c>
       <c r="J23">
-        <v>1024.969241511561</v>
+        <v>993.2030241205557</v>
       </c>
       <c r="K23">
-        <v>3291.307540365763</v>
+        <v>3197.869272142953</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.72748621022937</v>
+        <v>60.9498496213767</v>
       </c>
       <c r="G24">
-        <v>145.8813235527467</v>
+        <v>153.8762330738079</v>
       </c>
       <c r="H24">
-        <v>1653.939641919852</v>
+        <v>1602.184760953971</v>
       </c>
       <c r="I24">
-        <v>-675.9230423487242</v>
+        <v>-664.589463031773</v>
       </c>
       <c r="J24">
-        <v>925.8174820150288</v>
+        <v>900.5494976107493</v>
       </c>
       <c r="K24">
-        <v>3229.213147081699</v>
+        <v>3038.331928652122</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.28082791540245</v>
+        <v>60.21791219247816</v>
       </c>
       <c r="G25">
-        <v>168.7926517414262</v>
+        <v>156.2269628915882</v>
       </c>
       <c r="H25">
-        <v>1742.720165653476</v>
+        <v>1757.603123293069</v>
       </c>
       <c r="I25">
-        <v>-580.3868327932275</v>
+        <v>-592.2467126306088</v>
       </c>
       <c r="J25">
-        <v>876.9601120684725</v>
+        <v>850.7238412840584</v>
       </c>
       <c r="K25">
-        <v>3268.108404447913</v>
+        <v>3138.383815832451</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.01004716857013</v>
+        <v>61.25261001889955</v>
       </c>
       <c r="G26">
-        <v>179.0937818755245</v>
+        <v>177.2823936402309</v>
       </c>
       <c r="H26">
-        <v>1691.233361049872</v>
+        <v>1770.548395869889</v>
       </c>
       <c r="I26">
-        <v>-553.6971880770452</v>
+        <v>-531.5397071577997</v>
       </c>
       <c r="J26">
-        <v>852.2608006356306</v>
+        <v>798.1640811963515</v>
       </c>
       <c r="K26">
-        <v>3128.07756345859</v>
+        <v>3161.824979474998</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.26831550403374</v>
+        <v>60.11719365794287</v>
       </c>
       <c r="G27">
-        <v>198.6542042750486</v>
+        <v>197.3236438703063</v>
       </c>
       <c r="H27">
-        <v>1645.472050036322</v>
+        <v>1778.672797891965</v>
       </c>
       <c r="I27">
-        <v>-517.6010141862406</v>
+        <v>-488.2468187604512</v>
       </c>
       <c r="J27">
-        <v>757.7649433997043</v>
+        <v>787.3740027489623</v>
       </c>
       <c r="K27">
-        <v>3095.382811573382</v>
+        <v>3100.274680611115</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.54123641438784</v>
+        <v>57.57297030493974</v>
       </c>
       <c r="G28">
-        <v>206.6702768574794</v>
+        <v>219.1298077153452</v>
       </c>
       <c r="H28">
-        <v>1671.737194413133</v>
+        <v>1784.835713342273</v>
       </c>
       <c r="I28">
-        <v>-459.0386077194619</v>
+        <v>-428.5824196252608</v>
       </c>
       <c r="J28">
-        <v>735.190766173041</v>
+        <v>737.9868825406934</v>
       </c>
       <c r="K28">
-        <v>2863.999775887795</v>
+        <v>2902.008174948712</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.55920367063665</v>
+        <v>53.91368083457358</v>
       </c>
       <c r="G29">
-        <v>233.0985210632914</v>
+        <v>223.5478507583593</v>
       </c>
       <c r="H29">
-        <v>1761.365115204768</v>
+        <v>1753.574150106695</v>
       </c>
       <c r="I29">
-        <v>-400.0950412288474</v>
+        <v>-382.9100261304626</v>
       </c>
       <c r="J29">
-        <v>680.6654117898462</v>
+        <v>684.9667258662678</v>
       </c>
       <c r="K29">
-        <v>2758.741253486093</v>
+        <v>2966.288882333215</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.52593207955005</v>
+        <v>53.36090719029074</v>
       </c>
       <c r="G30">
-        <v>257.883745925481</v>
+        <v>246.4201130547092</v>
       </c>
       <c r="H30">
-        <v>1827.312928663313</v>
+        <v>1816.592163956458</v>
       </c>
       <c r="I30">
-        <v>-316.499769861443</v>
+        <v>-340.227228063351</v>
       </c>
       <c r="J30">
-        <v>656.1517917177238</v>
+        <v>627.0220272113435</v>
       </c>
       <c r="K30">
-        <v>2780.105190209137</v>
+        <v>2750.534842020544</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.03453612782486</v>
+        <v>52.93606178797118</v>
       </c>
       <c r="G31">
-        <v>266.70344306206</v>
+        <v>259.5261975442133</v>
       </c>
       <c r="H31">
-        <v>1690.810845820158</v>
+        <v>1847.628372876683</v>
       </c>
       <c r="I31">
-        <v>-273.1839996552783</v>
+        <v>-266.7118893651208</v>
       </c>
       <c r="J31">
-        <v>602.1756711882045</v>
+        <v>583.9118480015669</v>
       </c>
       <c r="K31">
-        <v>2663.352568906326</v>
+        <v>2594.258937175372</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.24356345254765</v>
+        <v>48.87140070756588</v>
       </c>
       <c r="G32">
-        <v>287.2140740060879</v>
+        <v>269.7684349945769</v>
       </c>
       <c r="H32">
-        <v>1867.217062066257</v>
+        <v>1866.73301751877</v>
       </c>
       <c r="I32">
-        <v>-204.0667792782615</v>
+        <v>-199.6583124306885</v>
       </c>
       <c r="J32">
-        <v>520.1967022625247</v>
+        <v>522.6341681159619</v>
       </c>
       <c r="K32">
-        <v>2402.359305868336</v>
+        <v>2604.990772534958</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.71030389552946</v>
+        <v>50.54768455103583</v>
       </c>
       <c r="G33">
-        <v>298.5147090138946</v>
+        <v>281.572146895297</v>
       </c>
       <c r="H33">
-        <v>1813.651702900935</v>
+        <v>1757.683812207988</v>
       </c>
       <c r="I33">
-        <v>-140.2213536615845</v>
+        <v>-139.6786979245667</v>
       </c>
       <c r="J33">
-        <v>507.8119695729498</v>
+        <v>500.9020154912978</v>
       </c>
       <c r="K33">
-        <v>2389.928959467542</v>
+        <v>2413.780061476167</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.841872926573</v>
+        <v>47.17295820125505</v>
       </c>
       <c r="G34">
-        <v>312.8135086254376</v>
+        <v>298.4502970703343</v>
       </c>
       <c r="H34">
-        <v>1840.380963822508</v>
+        <v>1768.422930838774</v>
       </c>
       <c r="I34">
-        <v>-80.01847450766128</v>
+        <v>-81.67469622601584</v>
       </c>
       <c r="J34">
-        <v>455.5730361165941</v>
+        <v>456.7009756326181</v>
       </c>
       <c r="K34">
-        <v>2185.770880379673</v>
+        <v>2180.216750154454</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.56562030976047</v>
+        <v>49.72922020895445</v>
       </c>
       <c r="G35">
-        <v>332.4102702372127</v>
+        <v>342.4020654205809</v>
       </c>
       <c r="H35">
-        <v>1885.963336866823</v>
+        <v>1766.601156044574</v>
       </c>
       <c r="I35">
-        <v>-19.64444911893752</v>
+        <v>-18.93856327690787</v>
       </c>
       <c r="J35">
-        <v>381.7511673429298</v>
+        <v>384.7076069080314</v>
       </c>
       <c r="K35">
-        <v>1952.648768056936</v>
+        <v>2007.256955493415</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.54037185135816</v>
+        <v>48.37766054294508</v>
       </c>
       <c r="G36">
-        <v>350.4131125138367</v>
+        <v>343.3793065709929</v>
       </c>
       <c r="H36">
-        <v>1806.619121555956</v>
+        <v>1822.093005482793</v>
       </c>
       <c r="I36">
-        <v>47.29260680469472</v>
+        <v>46.27626096618655</v>
       </c>
       <c r="J36">
-        <v>358.7037507559866</v>
+        <v>336.3510919063644</v>
       </c>
       <c r="K36">
-        <v>1794.486553243961</v>
+        <v>1869.859502502234</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.49901325471647</v>
+        <v>47.97105797460423</v>
       </c>
       <c r="G37">
-        <v>355.0103199609108</v>
+        <v>366.9835361722081</v>
       </c>
       <c r="H37">
-        <v>1831.557916236872</v>
+        <v>1899.488066307788</v>
       </c>
       <c r="I37">
-        <v>109.8130827860222</v>
+        <v>118.332797004507</v>
       </c>
       <c r="J37">
-        <v>308.527013306645</v>
+        <v>299.4126653606868</v>
       </c>
       <c r="K37">
-        <v>1680.674188158359</v>
+        <v>1651.385846174448</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.89858113690902</v>
+        <v>47.79463025707643</v>
       </c>
       <c r="G38">
-        <v>363.5612817735536</v>
+        <v>379.9233702241048</v>
       </c>
       <c r="H38">
-        <v>1939.393143436479</v>
+        <v>1850.708936140065</v>
       </c>
       <c r="I38">
-        <v>191.3092608860449</v>
+        <v>189.0630127787579</v>
       </c>
       <c r="J38">
-        <v>236.758887081755</v>
+        <v>251.7244616019428</v>
       </c>
       <c r="K38">
-        <v>1346.491576026807</v>
+        <v>1438.457505109075</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.03761144973724</v>
+        <v>44.53539527798488</v>
       </c>
       <c r="G39">
-        <v>378.7090706736827</v>
+        <v>388.0956431295432</v>
       </c>
       <c r="H39">
-        <v>1827.934466728929</v>
+        <v>1932.54353559126</v>
       </c>
       <c r="I39">
-        <v>259.6322190077487</v>
+        <v>260.433754242013</v>
       </c>
       <c r="J39">
-        <v>192.1027921501064</v>
+        <v>195.8122211288524</v>
       </c>
       <c r="K39">
-        <v>1100.001896775193</v>
+        <v>1150.662160561823</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.64865256715229</v>
+        <v>45.01900125664383</v>
       </c>
       <c r="G40">
-        <v>393.7100884275405</v>
+        <v>413.7639917418534</v>
       </c>
       <c r="H40">
-        <v>1820.286179082843</v>
+        <v>1894.843685072698</v>
       </c>
       <c r="I40">
-        <v>328.8634740730695</v>
+        <v>334.793440610955</v>
       </c>
       <c r="J40">
-        <v>153.2592451111708</v>
+        <v>146.4080800011871</v>
       </c>
       <c r="K40">
-        <v>928.3890798972616</v>
+        <v>852.937222485087</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.19107910160135</v>
+        <v>44.10507932174754</v>
       </c>
       <c r="G41">
-        <v>437.7523894855342</v>
+        <v>448.780215319504</v>
       </c>
       <c r="H41">
-        <v>1815.105067060996</v>
+        <v>1796.815587283729</v>
       </c>
       <c r="I41">
-        <v>390.6012178573139</v>
+        <v>389.8706871711587</v>
       </c>
       <c r="J41">
-        <v>105.7041084400798</v>
+        <v>99.97784818520867</v>
       </c>
       <c r="K41">
-        <v>652.5794338748882</v>
+        <v>637.7596596074832</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.22953397654927</v>
+        <v>41.01021814487378</v>
       </c>
       <c r="G42">
-        <v>457.9756748327638</v>
+        <v>434.2326043076451</v>
       </c>
       <c r="H42">
-        <v>1808.804158550319</v>
+        <v>1852.405536309621</v>
       </c>
       <c r="I42">
-        <v>481.815769807882</v>
+        <v>455.638775966287</v>
       </c>
       <c r="J42">
-        <v>55.1225093234611</v>
+        <v>53.80192741983054</v>
       </c>
       <c r="K42">
-        <v>320.676527827644</v>
+        <v>324.0088278116277</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.39987157348228</v>
+        <v>41.96859335020094</v>
       </c>
       <c r="G43">
-        <v>443.7991486083623</v>
+        <v>466.5197525933161</v>
       </c>
       <c r="H43">
-        <v>1911.733330747689</v>
+        <v>1930.498093686237</v>
       </c>
       <c r="I43">
-        <v>556.0364159362214</v>
+        <v>548.6619554383727</v>
       </c>
       <c r="J43">
-        <v>5.207461629447163</v>
+        <v>5.519098190285831</v>
       </c>
       <c r="K43">
-        <v>32.54466903372189</v>
+        <v>33.62442824310615</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.92684279823374</v>
+        <v>41.1000205076819</v>
       </c>
       <c r="G44">
-        <v>484.1395061540258</v>
+        <v>460.671207421979</v>
       </c>
       <c r="H44">
-        <v>1973.257700617895</v>
+        <v>1998.922384626649</v>
       </c>
       <c r="I44">
-        <v>659.0011552415486</v>
+        <v>642.9443775124962</v>
       </c>
       <c r="J44">
-        <v>-44.65134168578835</v>
+        <v>-43.76124078738624</v>
       </c>
       <c r="K44">
-        <v>-286.75290126029</v>
+        <v>-277.1637066690878</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.88358778984467</v>
+        <v>42.2066105712233</v>
       </c>
       <c r="G45">
-        <v>514.1300702013292</v>
+        <v>509.8028114612988</v>
       </c>
       <c r="H45">
-        <v>1824.209681783548</v>
+        <v>1882.068982728832</v>
       </c>
       <c r="I45">
-        <v>713.2622152700334</v>
+        <v>690.0267493977994</v>
       </c>
       <c r="J45">
-        <v>-92.29739471746933</v>
+        <v>-90.28290095078458</v>
       </c>
       <c r="K45">
-        <v>-638.024595501931</v>
+        <v>-619.7827495508808</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.22530692321147</v>
+        <v>40.85994376043245</v>
       </c>
       <c r="G46">
-        <v>532.8878356028124</v>
+        <v>525.2308407708647</v>
       </c>
       <c r="H46">
-        <v>1883.103199630473</v>
+        <v>1957.350893416244</v>
       </c>
       <c r="I46">
-        <v>822.8368160746452</v>
+        <v>840.1750514273723</v>
       </c>
       <c r="J46">
-        <v>-141.7962814274496</v>
+        <v>-139.0693752942006</v>
       </c>
       <c r="K46">
-        <v>-961.4113389519341</v>
+        <v>-978.9306909417302</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.47149483216604</v>
+        <v>37.9538084999818</v>
       </c>
       <c r="G47">
-        <v>545.8035125633744</v>
+        <v>501.5646129207684</v>
       </c>
       <c r="H47">
-        <v>1971.910681716506</v>
+        <v>1933.689862101135</v>
       </c>
       <c r="I47">
-        <v>854.228562267445</v>
+        <v>861.6942938000825</v>
       </c>
       <c r="J47">
-        <v>-184.1303558536666</v>
+        <v>-187.1885997059302</v>
       </c>
       <c r="K47">
-        <v>-1361.887799361846</v>
+        <v>-1269.568918740027</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.12917645460309</v>
+        <v>38.44633859758164</v>
       </c>
       <c r="G48">
-        <v>536.0349405752686</v>
+        <v>537.7921227151953</v>
       </c>
       <c r="H48">
-        <v>1847.166482232048</v>
+        <v>1920.037130342531</v>
       </c>
       <c r="I48">
-        <v>998.1671811264101</v>
+        <v>1005.930953785649</v>
       </c>
       <c r="J48">
-        <v>-240.3847243402124</v>
+        <v>-238.635819322166</v>
       </c>
       <c r="K48">
-        <v>-1775.226270740198</v>
+        <v>-1672.6367388763</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.95245067174228</v>
+        <v>37.23130562216494</v>
       </c>
       <c r="G49">
-        <v>555.0207554277969</v>
+        <v>534.2729681906656</v>
       </c>
       <c r="H49">
-        <v>1898.091798033898</v>
+        <v>2009.299198546636</v>
       </c>
       <c r="I49">
-        <v>1083.06710512431</v>
+        <v>1060.105065017829</v>
       </c>
       <c r="J49">
-        <v>-290.8341578326548</v>
+        <v>-293.0466576390589</v>
       </c>
       <c r="K49">
-        <v>-2190.281321490679</v>
+        <v>-2013.084451568243</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.67793777996263</v>
+        <v>39.03951552768071</v>
       </c>
       <c r="G50">
-        <v>598.9104663365633</v>
+        <v>565.965267218398</v>
       </c>
       <c r="H50">
-        <v>1941.212215135089</v>
+        <v>2019.417935129176</v>
       </c>
       <c r="I50">
-        <v>1118.830956473283</v>
+        <v>1215.528490974943</v>
       </c>
       <c r="J50">
-        <v>-332.5389860859558</v>
+        <v>-337.6198681923303</v>
       </c>
       <c r="K50">
-        <v>-2413.263614245675</v>
+        <v>-2525.646287932519</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.80010401282974</v>
+        <v>39.06056677852856</v>
       </c>
       <c r="G51">
-        <v>582.5721131103176</v>
+        <v>582.5268722221743</v>
       </c>
       <c r="H51">
-        <v>2051.42187381302</v>
+        <v>1913.751727243226</v>
       </c>
       <c r="I51">
-        <v>1257.255952599414</v>
+        <v>1252.696701920741</v>
       </c>
       <c r="J51">
-        <v>-381.8593113674212</v>
+        <v>-402.340771790423</v>
       </c>
       <c r="K51">
-        <v>-3001.84915821424</v>
+        <v>-3037.436740219083</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>35.76438995896643</v>
+        <v>36.0548760059905</v>
       </c>
       <c r="G52">
-        <v>628.2374174950218</v>
+        <v>639.3104467269319</v>
       </c>
       <c r="H52">
-        <v>1888.488822773771</v>
+        <v>1881.759666675224</v>
       </c>
       <c r="I52">
-        <v>1317.652227472598</v>
+        <v>1418.894954667633</v>
       </c>
       <c r="J52">
-        <v>-423.8068335023489</v>
+        <v>-431.3831811034495</v>
       </c>
       <c r="K52">
-        <v>-3411.938042585863</v>
+        <v>-3351.853775034422</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.92553037821772</v>
+        <v>38.81227286539537</v>
       </c>
       <c r="G53">
-        <v>597.36696438397</v>
+        <v>617.47350801136</v>
       </c>
       <c r="H53">
-        <v>2010.885753261077</v>
+        <v>1950.34899181468</v>
       </c>
       <c r="I53">
-        <v>1486.138484319957</v>
+        <v>1507.478951694287</v>
       </c>
       <c r="J53">
-        <v>-500.6730517236654</v>
+        <v>-483.3082604463539</v>
       </c>
       <c r="K53">
-        <v>-3796.920263681619</v>
+        <v>-3643.002317863271</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.36939031544714</v>
+        <v>37.05641501879799</v>
       </c>
       <c r="G54">
-        <v>653.6283297498796</v>
+        <v>615.1531897801087</v>
       </c>
       <c r="H54">
-        <v>1965.632676889578</v>
+        <v>2071.19682779051</v>
       </c>
       <c r="I54">
-        <v>1546.357514990074</v>
+        <v>1493.699737923849</v>
       </c>
       <c r="J54">
-        <v>-520.6827990307822</v>
+        <v>-527.214038220873</v>
       </c>
       <c r="K54">
-        <v>-4199.701713295327</v>
+        <v>-4155.423048778011</v>
       </c>
     </row>
   </sheetData>
